--- a/resources/01-03-weak-verbs.xlsx
+++ b/resources/01-03-weak-verbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vvj0003/projects/education/deutsch/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9098CE67-B6C4-1147-B522-B838B59524D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43E4149-5333-8C44-A547-2C70A5F4803A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="440" windowWidth="16800" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="440" windowWidth="19200" windowHeight="21160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Verbs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="244">
   <si>
     <t>esse</t>
   </si>
@@ -1178,6 +1178,57 @@
       </rPr>
       <t>t</t>
     </r>
+  </si>
+  <si>
+    <t>schlafe</t>
+  </si>
+  <si>
+    <t>schläfst</t>
+  </si>
+  <si>
+    <t>schläft</t>
+  </si>
+  <si>
+    <t>schlaft</t>
+  </si>
+  <si>
+    <t>ˈʃlaːfn</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>to give</t>
+  </si>
+  <si>
+    <t>gebe</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>gibst</t>
+  </si>
+  <si>
+    <t>gibt</t>
+  </si>
+  <si>
+    <t>gebt</t>
+  </si>
+  <si>
+    <t>ˈɡeːbn</t>
+  </si>
+  <si>
+    <t>transitive</t>
+  </si>
+  <si>
+    <t>nimmt</t>
+  </si>
+  <si>
+    <t>nehmt</t>
+  </si>
+  <si>
+    <t>ˈneːmən</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1302,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1428,22 +1497,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15FB47A6-AE4F-6D4C-A536-2954825B74E1}" name="Table1" displayName="Table1" ref="A1:J51" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:J51" xr:uid="{44931CFB-BC3A-3F4E-96BD-263CD9705C08}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{15FB47A6-AE4F-6D4C-A536-2954825B74E1}" name="Table1" displayName="Table1" ref="A1:K52" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:K52" xr:uid="{44931CFB-BC3A-3F4E-96BD-263CD9705C08}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J51">
     <sortCondition ref="A1:A51"/>
   </sortState>
-  <tableColumns count="10">
+  <tableColumns count="11">
     <tableColumn id="2" xr3:uid="{E4B399BA-18EE-7B45-A60A-87FA488B3B21}" name="verb"/>
     <tableColumn id="3" xr3:uid="{FACD9D36-D07A-CE42-A4CD-8531722F73DA}" name="meaning"/>
     <tableColumn id="1" xr3:uid="{C01E427A-7481-7041-AE7A-29D451F2A633}" name="IPA"/>
-    <tableColumn id="4" xr3:uid="{9DD5FA8E-517A-B34A-8E93-4BAC79AA1848}" name="ich" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{98CB7397-6AE1-834C-8CE9-CC7CCA817C4D}" name="du" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{2F8947FC-B68B-B04F-8C8D-7287EF2AFC3B}" name="er/sie/es" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{5B3944E8-4B58-C544-8AC0-153C825BD8C3}" name="wir" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{8A690D01-306C-734A-86CC-8B5EACF247F1}" name="ihr" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{7E1AC344-8EAC-5046-8C1A-869B4F9C5D37}" name="Sie" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{6F6C415D-F434-5A48-A9C8-5621C8D34D81}" name="sie " dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{9DD5FA8E-517A-B34A-8E93-4BAC79AA1848}" name="ich" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{98CB7397-6AE1-834C-8CE9-CC7CCA817C4D}" name="du" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{2F8947FC-B68B-B04F-8C8D-7287EF2AFC3B}" name="er/sie/es" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{5B3944E8-4B58-C544-8AC0-153C825BD8C3}" name="wir" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{8A690D01-306C-734A-86CC-8B5EACF247F1}" name="ihr" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{7E1AC344-8EAC-5046-8C1A-869B4F9C5D37}" name="Sie" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{6F6C415D-F434-5A48-A9C8-5621C8D34D81}" name="sie " dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{48FD1B0F-9126-B14C-8E76-E662A66D43F7}" name="category" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1770,16 +1840,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
@@ -1788,7 +1858,7 @@
     <col min="8" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>103</v>
       </c>
@@ -1819,8 +1889,11 @@
       <c r="J1" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -1848,13 +1921,15 @@
       <c r="J2" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1868,8 +1943,9 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -1883,8 +1959,9 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>95</v>
       </c>
@@ -1908,8 +1985,9 @@
       <c r="J6" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1937,8 +2015,9 @@
       <c r="J7" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1952,8 +2031,9 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1971,8 +2051,9 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>184</v>
       </c>
@@ -2000,8 +2081,9 @@
       <c r="J10" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>81</v>
       </c>
@@ -2029,8 +2111,9 @@
       <c r="J11" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2044,8 +2127,9 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>97</v>
       </c>
@@ -2071,8 +2155,9 @@
         <v>115</v>
       </c>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -2094,8 +2179,9 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -2109,16 +2195,18 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>172</v>
       </c>
       <c r="B16" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>223</v>
       </c>
@@ -2149,8 +2237,9 @@
       <c r="J17" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -2178,8 +2267,9 @@
       <c r="J18" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -2205,16 +2295,18 @@
         <v>132</v>
       </c>
       <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>153</v>
       </c>
       <c r="B20" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -2239,8 +2331,9 @@
       <c r="I21" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2254,8 +2347,9 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -2269,8 +2363,9 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>160</v>
       </c>
@@ -2298,8 +2393,9 @@
       <c r="J24" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2321,8 +2417,9 @@
       <c r="J25" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -2348,8 +2445,9 @@
         <v>123</v>
       </c>
       <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2377,27 +2475,42 @@
       <c r="J27" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>84</v>
       </c>
       <c r="B28" t="s">
         <v>85</v>
       </c>
+      <c r="C28" t="s">
+        <v>243</v>
+      </c>
       <c r="D28" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="F28" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>176</v>
       </c>
@@ -2425,8 +2538,9 @@
       <c r="J29" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>155</v>
       </c>
@@ -2454,8 +2568,9 @@
       <c r="J30" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -2483,8 +2598,9 @@
       <c r="J31" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -2498,8 +2614,9 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>86</v>
       </c>
@@ -2527,23 +2644,42 @@
       <c r="J33" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>17</v>
       </c>
       <c r="B34" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="C34" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>25</v>
       </c>
@@ -2571,8 +2707,9 @@
       <c r="J35" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2586,8 +2723,9 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>213</v>
       </c>
@@ -2618,8 +2756,9 @@
       <c r="J37" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -2647,8 +2786,9 @@
       <c r="J38" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -2674,8 +2814,9 @@
         <v>119</v>
       </c>
       <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -2703,8 +2844,9 @@
       <c r="J40" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>207</v>
       </c>
@@ -2732,8 +2874,9 @@
       <c r="J41" s="2" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -2761,8 +2904,9 @@
       <c r="J42" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -2790,8 +2934,9 @@
       <c r="J43" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -2819,8 +2964,9 @@
       <c r="J44" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -2848,8 +2994,9 @@
       <c r="J45" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>63</v>
       </c>
@@ -2877,8 +3024,9 @@
       <c r="J46" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -2892,8 +3040,9 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>189</v>
       </c>
@@ -2921,8 +3070,9 @@
       <c r="J48" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>78</v>
       </c>
@@ -2948,8 +3098,9 @@
       <c r="J49" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -2977,8 +3128,9 @@
       <c r="J50" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -3005,6 +3157,42 @@
       </c>
       <c r="J51" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>232</v>
+      </c>
+      <c r="B52" t="s">
+        <v>233</v>
+      </c>
+      <c r="C52" t="s">
+        <v>239</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/resources/01-03-weak-verbs.xlsx
+++ b/resources/01-03-weak-verbs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vvj0003/projects/education/deutsch/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43E4149-5333-8C44-A547-2C70A5F4803A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7348590D-1746-9F44-A066-DB484C823017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="440" windowWidth="19200" windowHeight="21160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="440" windowWidth="19200" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Verbs" sheetId="1" r:id="rId1"/>
